--- a/biology/Botanique/Virus_U_de_la_pomme_de_terre/Virus_U_de_la_pomme_de_terre.xlsx
+++ b/biology/Botanique/Virus_U_de_la_pomme_de_terre/Virus_U_de_la_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potato virus U
 Le Virus U de la pomme de terre, PVU, acronyme de Potato virus U, est un virus  pathogène des plantes du groupe des Nepovirus, appartenant à la famille des  Secoviridae.
-Les virions sont des particules isométriques d'environ 28 nm de diamètre, sans apparentement sérologique avec les 17 autres espèces de Nepovirus[2].
-Ce virus a été découvert en 1983 sur plant de pomme de terre dans la vallée de Comas au Pérou à 3600 mètres d'altitude [3],[2]. Il se  manifeste par des symptômes caractéristiques de déformation des feuilles et de taches nécrotiques.
-Il est transmis par inoculation mécanique, y compris par contact entre graines et par greffage, et pourrait aussi être transmis par des nématodes du genre Longidorus[4].
+Les virions sont des particules isométriques d'environ 28 nm de diamètre, sans apparentement sérologique avec les 17 autres espèces de Nepovirus.
+Ce virus a été découvert en 1983 sur plant de pomme de terre dans la vallée de Comas au Pérou à 3600 mètres d'altitude ,. Il se  manifeste par des symptômes caractéristiques de déformation des feuilles et de taches nécrotiques.
+Il est transmis par inoculation mécanique, y compris par contact entre graines et par greffage, et pourrait aussi être transmis par des nématodes du genre Longidorus.
 </t>
         </is>
       </c>
